--- a/Documents/c4pe_TestProtocol.xlsx
+++ b/Documents/c4pe_TestProtocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIT\ITP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamen\repos\c4pe\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{E3B1C8B1-FAEC-462E-96EE-69FA526A039D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C4013-DD93-4674-9A02-F40EE22C9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ProjektURL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>C4PE Feedback Application Testing Protocol</t>
   </si>
@@ -54,17 +51,101 @@
     <t>Nr.</t>
   </si>
   <si>
-    <t>if ok -&gt; x | otherwise describe error</t>
-  </si>
-  <si>
-    <t>describe testcase</t>
+    <t>http://37.46.209.90</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Log In with an existing user</t>
+  </si>
+  <si>
+    <t>Sign up / Create a new User</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Create a new place</t>
+  </si>
+  <si>
+    <t>Search for place</t>
+  </si>
+  <si>
+    <t>Filtering for places</t>
+  </si>
+  <si>
+    <t>Show place page</t>
+  </si>
+  <si>
+    <t>Rate review for place</t>
+  </si>
+  <si>
+    <t>Create review for / rate place</t>
+  </si>
+  <si>
+    <t>Edit review</t>
+  </si>
+  <si>
+    <t>Edit place</t>
+  </si>
+  <si>
+    <t>Editing the place type does not actually change it</t>
+  </si>
+  <si>
+    <t>Set opening times for place</t>
+  </si>
+  <si>
+    <t>Edit opening times</t>
+  </si>
+  <si>
+    <t>Cannot change day</t>
+  </si>
+  <si>
+    <t>Adding/deleting owners of a place</t>
+  </si>
+  <si>
+    <t>Update User</t>
+  </si>
+  <si>
+    <t>Delete place</t>
+  </si>
+  <si>
+    <t>Owner can't delete place, but admin can</t>
+  </si>
+  <si>
+    <t>Selecting a place type doesn't chage it from 'cafe'</t>
+  </si>
+  <si>
+    <t>Create place type</t>
+  </si>
+  <si>
+    <t>Update place type</t>
+  </si>
+  <si>
+    <t>The day is always set to Monday</t>
+  </si>
+  <si>
+    <t>Delete review</t>
+  </si>
+  <si>
+    <t>No button to delete a review, throws an error on the admin page</t>
+  </si>
+  <si>
+    <t>Delete user</t>
+  </si>
+  <si>
+    <t>Only shows results if the full name is entered,  problem with the API, replaces spaces in query with '%20'</t>
+  </si>
+  <si>
+    <t>Visit different pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +168,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -169,19 +258,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -227,109 +303,91 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -807,422 +865,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:F38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="4:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+    <row r="2" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="5">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="19"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="18">
         <v>44000</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="23"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
         <v>6</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="C41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
         <v>8</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="13" t="s">
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="11">
-        <v>2</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="11">
-        <v>3</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
-        <v>4</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
-        <v>5</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
-        <v>6</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="11">
-        <v>8</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
-        <v>9</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="11">
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
         <v>10</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="11">
+      <c r="C45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
         <v>11</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="11">
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
         <v>12</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
+      <c r="C47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="23"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
         <v>13</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="11">
+      <c r="C48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
         <v>14</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="11">
+      <c r="C49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
         <v>15</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="11">
+      <c r="C50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
         <v>16</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
+      <c r="C51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
         <v>17</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
+      <c r="C52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
         <v>18</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="11">
+      <c r="C53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
         <v>19</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="C54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="24">
         <v>20</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
+      <c r="C55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="25">
+        <v>21</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G54:J54"/>
+  <mergeCells count="49">
+    <mergeCell ref="C55:F55"/>
     <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="E23:G24"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
     <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
     <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
@@ -1236,23 +1398,29 @@
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="E23:G24"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{67AF34C1-68CD-4195-A6E0-43EAD2931A02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documents/c4pe_TestProtocol.xlsx
+++ b/Documents/c4pe_TestProtocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franzi Grausenburger\repos\c4pe\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E333A40-D302-4385-A819-474B0943BF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848902EA-63B4-4533-954D-FA91DA4BFDC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Owner can't delete place, but admin can</t>
   </si>
   <si>
-    <t>Selecting a place type doesn't chage it from 'cafe'</t>
-  </si>
-  <si>
     <t>Create place type</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Tester:</t>
+  </si>
+  <si>
+    <t>Selecting a place type doesn't change it from 'cafe'</t>
   </si>
 </sst>
 </file>
@@ -305,56 +305,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -434,15 +434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,7 +470,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7078980" y="137160"/>
+          <a:off x="7063740" y="53340"/>
           <a:ext cx="2072640" cy="1089660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -487,15 +487,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>188594</xdr:colOff>
+      <xdr:colOff>746760</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,8 +523,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3922394" y="5562600"/>
-          <a:ext cx="2326006" cy="1272540"/>
+          <a:off x="4480560" y="5730240"/>
+          <a:ext cx="1735454" cy="1082040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,444 +849,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:10" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="4">
+      <c r="D5" s="11">
         <v>44000</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>18</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8">
-        <v>6</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="8">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="8">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="8">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="8">
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="8">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="8">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="8">
-        <v>15</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="8">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="8">
-        <v>17</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="8">
-        <v>18</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
-        <v>19</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
-        <v>20</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
-        <v>21</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="40" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="2:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1303,17 +1303,28 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="D1:H2"/>
+    <mergeCell ref="D3:H4"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="D5:H6"/>
     <mergeCell ref="E7:H8"/>
     <mergeCell ref="D7:D8"/>
@@ -1330,28 +1341,17 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="D1:H2"/>
-    <mergeCell ref="D3:H4"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G15:J15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{67AF34C1-68CD-4195-A6E0-43EAD2931A02}"/>
